--- a/biology/Histoire de la zoologie et de la botanique/Karl_Linsbauer/Karl_Linsbauer.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Karl_Linsbauer/Karl_Linsbauer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Karl Linsbauer (né le 11 octobre 1872 à Vienne et mort le 5 décembre 1934 à Graz) est un botaniste autrichien,
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fait ses études au gymnasium de Vienne et s’oriente vers une spécialisation en sciences naturelles à l'université de Vienne, où il subit l’influence des botanistes Julius von Wiesner (1838-1916) et Anton Kerner von Marilaun (1831-1898).
 Il passe son doctorat en 1899. J. von Wiesner reconnaissant la valeur de Linsbauer en fait son démonstrateur en 1897 puis l’année suivante l’emploie comme assistant à l’Institut de physiologie végétale. En 1904, il est habilité comme enseignant sur l’anatomie et la physiologie des végétaux. En 1910, il obtient un poste de professeur de botanique à l’université de Tchernivtsi. L’année suivante, il remplaçait Gottlieb Haberlandt (1854-1945) à la chaire et à la direction de l’Institut de physiologie végétale de l’université de Graz.
@@ -543,7 +557,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1935, Chronica Botanica : 82-83.</t>
         </is>
